--- a/Example output from Describe.xlsx
+++ b/Example output from Describe.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26550" windowHeight="11925"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26550" windowHeight="11925" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Describe Fields" sheetId="2" r:id="rId1"/>
-    <sheet name="Export_Output_2" sheetId="1" r:id="rId2"/>
-    <sheet name="From GG2 Manual" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Export_Output_2" sheetId="1" r:id="rId3"/>
+    <sheet name="From GG2 Manual" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Describe Fields'!$D$1:$D$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Describe Fields'!$C$1:$C$71</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="314">
   <si>
     <t>OBJECTID</t>
   </si>
@@ -794,45 +795,18 @@
     <t>This is either Geographic (Lat/Long) or a projected spatial reference such as Lamberts, Albers, Map Grid of Australia etc.</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Field in results table</t>
   </si>
   <si>
-    <t>Dataset</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>General</t>
-  </si>
-  <si>
-    <t>Raster</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Property Description</t>
   </si>
   <si>
-    <t>Properties Type</t>
-  </si>
-  <si>
     <t>Question</t>
   </si>
   <si>
-    <t>What is this?</t>
-  </si>
-  <si>
     <t>Indicates whether the dataset can be versioned.</t>
   </si>
   <si>
-    <t>Nothing reported??</t>
-  </si>
-  <si>
     <t>Size of file.</t>
   </si>
   <si>
@@ -845,33 +819,21 @@
     <t>Full path of the geodata.</t>
   </si>
   <si>
-    <t>how is this different to 'dataset_datasetType'??</t>
-  </si>
-  <si>
     <t>Geodata file extention.</t>
   </si>
   <si>
     <t>File name with extention.</t>
   </si>
   <si>
-    <t>How is this different to 'dataset_file'??</t>
-  </si>
-  <si>
     <t>Path to geodata file, minus the file name.</t>
   </si>
   <si>
     <t>Number of bands in raster geodata.</t>
   </si>
   <si>
-    <t>Mainly relates to raster geodata with more than one band of data.</t>
-  </si>
-  <si>
     <t>Is the band of type 'Integer'?</t>
   </si>
   <si>
-    <t>Number of rows in each raster band????</t>
-  </si>
-  <si>
     <t>Mean raster grid cell height.</t>
   </si>
   <si>
@@ -884,21 +846,6 @@
     <t>Primary raster grid field.</t>
   </si>
   <si>
-    <t>Width raster grid.</t>
-  </si>
-  <si>
-    <t>Sensortype raster grid.</t>
-  </si>
-  <si>
-    <t>Permanent raster grid?</t>
-  </si>
-  <si>
-    <t>Compressiontype raster grid?</t>
-  </si>
-  <si>
-    <t>Format raster grid?</t>
-  </si>
-  <si>
     <t>Oidfieldname table grid?</t>
   </si>
   <si>
@@ -975,13 +922,58 @@
   </si>
   <si>
     <t>Example of multi-band raster</t>
+  </si>
+  <si>
+    <t>List of sub elements. For example a raster geodata with more than one band of data.</t>
+  </si>
+  <si>
+    <t>Indicates whether the children have been expanded.</t>
+  </si>
+  <si>
+    <t>Indicates whether full properties have been retrieved.</t>
+  </si>
+  <si>
+    <t>Indicates whether the metadata has been retrieved.</t>
+  </si>
+  <si>
+    <t>Number of rows in each raster band</t>
+  </si>
+  <si>
+    <t>The number of columns in each band.</t>
+  </si>
+  <si>
+    <t>Compressiontype type.</t>
+  </si>
+  <si>
+    <t>Raster format.</t>
+  </si>
+  <si>
+    <t>Indicates the permanent state of the raster: False if the raster is temporary and True if the raster is permanent.</t>
+  </si>
+  <si>
+    <t>The sensor type used to capture the image.</t>
+  </si>
+  <si>
+    <t>Raster statistics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indicates whether the table has an ObjectID field. </t>
+  </si>
+  <si>
+    <t>A Python list of Field objects for this table. This is the same as using the ListFields function.</t>
+  </si>
+  <si>
+    <t>A Python list of Index objects for this table. This is the same as using the ListIndexes function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the OID field if it exists. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1133,6 +1125,19 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1563,7 +1568,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1587,12 +1592,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1610,6 +1609,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1935,40 +1949,37 @@
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:AD71"/>
+  <dimension ref="A1:AC71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="14"/>
-    <col min="2" max="2" width="23" style="14" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="43" style="1"/>
+    <col min="1" max="1" width="43" style="12"/>
+    <col min="2" max="2" width="41.85546875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="43" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>296</v>
-      </c>
+      <c r="C1" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -1992,203 +2003,194 @@
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
       <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="AC1" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
       <c r="E2" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="8">
+        <v>3</v>
+      </c>
+      <c r="G2" s="8">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8">
+        <v>5</v>
+      </c>
+      <c r="I2" s="8">
+        <v>6</v>
+      </c>
+      <c r="J2" s="8">
+        <v>7</v>
+      </c>
+      <c r="K2" s="8">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8">
+        <v>9</v>
+      </c>
+      <c r="M2" s="8">
+        <v>10</v>
+      </c>
+      <c r="N2" s="8">
+        <v>11</v>
+      </c>
+      <c r="O2" s="8">
+        <v>12</v>
+      </c>
+      <c r="P2" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>14</v>
+      </c>
+      <c r="R2" s="8">
+        <v>15</v>
+      </c>
+      <c r="S2" s="8">
+        <v>16</v>
+      </c>
+      <c r="T2" s="8">
+        <v>17</v>
+      </c>
+      <c r="U2" s="8">
+        <v>18</v>
+      </c>
+      <c r="V2" s="8">
+        <v>19</v>
+      </c>
+      <c r="W2" s="8">
+        <v>20</v>
+      </c>
+      <c r="X2" s="8">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>23</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="8">
-        <v>3</v>
-      </c>
-      <c r="H2" s="8">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8">
-        <v>5</v>
-      </c>
-      <c r="J2" s="8">
-        <v>6</v>
-      </c>
-      <c r="K2" s="8">
-        <v>7</v>
-      </c>
-      <c r="L2" s="8">
-        <v>8</v>
-      </c>
-      <c r="M2" s="8">
-        <v>9</v>
-      </c>
-      <c r="N2" s="8">
-        <v>10</v>
-      </c>
-      <c r="O2" s="8">
-        <v>11</v>
-      </c>
-      <c r="P2" s="8">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="8">
-        <v>13</v>
-      </c>
-      <c r="R2" s="8">
-        <v>14</v>
-      </c>
-      <c r="S2" s="8">
-        <v>15</v>
-      </c>
-      <c r="T2" s="8">
-        <v>16</v>
-      </c>
-      <c r="U2" s="8">
-        <v>17</v>
-      </c>
-      <c r="V2" s="8">
-        <v>18</v>
-      </c>
-      <c r="W2" s="8">
-        <v>19</v>
-      </c>
-      <c r="X2" s="8">
-        <v>20</v>
-      </c>
-      <c r="Y2" s="8">
-        <v>21</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>22</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>23</v>
-      </c>
-      <c r="AB2" s="8">
-        <v>24</v>
-      </c>
-      <c r="AC2" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="16">
+    </row>
+    <row r="3" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC3" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>266</v>
+      <c r="B4" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8">
+        <v>-1</v>
       </c>
       <c r="E4" s="8">
         <v>-1</v>
@@ -2259,28 +2261,23 @@
       <c r="AA4" s="8">
         <v>-1</v>
       </c>
-      <c r="AB4" s="8">
+      <c r="AB4" s="14">
         <v>-1</v>
       </c>
-      <c r="AC4" s="16">
+      <c r="AC4" s="14">
         <v>-1</v>
       </c>
-      <c r="AD4" s="16">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    </row>
+    <row r="5" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>266</v>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>71</v>
@@ -2306,10 +2303,10 @@
       <c r="L5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
         <v>71</v>
       </c>
@@ -2349,28 +2346,23 @@
       <c r="AA5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AB5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AC5" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AD5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="8" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>71</v>
@@ -2396,10 +2388,10 @@
       <c r="L6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="8"/>
+      <c r="N6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
         <v>71</v>
       </c>
@@ -2439,27 +2431,24 @@
       <c r="AA6" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AC6" s="16" t="s">
+      <c r="AC6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AD6" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="7" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>267</v>
-      </c>
-      <c r="D7" s="12"/>
+      <c r="B7" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="E7" s="8" t="b">
         <v>0</v>
       </c>
@@ -2529,27 +2518,24 @@
       <c r="AA7" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="AB7" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="AB7" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="E8" s="8" t="s">
         <v>72</v>
       </c>
@@ -2575,10 +2561,10 @@
         <v>72</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>136</v>
@@ -2619,38 +2605,35 @@
       <c r="AA8" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="AB8" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC8" s="16" t="s">
+      <c r="AB8" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AC8" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="s">
+        <v>73</v>
+      </c>
       <c r="E9" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>105</v>
@@ -2662,72 +2645,69 @@
         <v>105</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M9" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="N9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="O9" s="8" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="S9" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="V9" s="8" t="s">
         <v>94</v>
       </c>
       <c r="W9" s="8" t="s">
-        <v>94</v>
+        <v>181</v>
       </c>
       <c r="X9" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Y9" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AA9" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB9" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="AC9" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AD9" s="16" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="AB9" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="8" t="b">
+        <v>0</v>
+      </c>
       <c r="E10" s="8" t="b">
         <v>0</v>
       </c>
@@ -2797,27 +2777,24 @@
       <c r="AA10" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="AB10" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="AB10" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8" t="s">
+        <v>74</v>
+      </c>
       <c r="E11" s="8" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2805,7 @@
         <v>74</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="I11" s="8" t="s">
         <v>106</v>
@@ -2840,26 +2817,26 @@
         <v>106</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="O11" s="8" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>74</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="R11" s="8" t="s">
         <v>138</v>
       </c>
       <c r="S11" s="8" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="T11" s="8" t="s">
         <v>74</v>
@@ -2874,10 +2851,10 @@
         <v>74</v>
       </c>
       <c r="X11" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y11" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>185</v>
       </c>
       <c r="Z11" s="8" t="s">
         <v>74</v>
@@ -2885,29 +2862,22 @@
       <c r="AA11" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AB11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC11" s="16" t="s">
+      <c r="AB11" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="AD11" s="16" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="AC11" s="14" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>268</v>
-      </c>
+      <c r="B12" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -2931,27 +2901,22 @@
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD12" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="AB12" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC12" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>268</v>
-      </c>
+      <c r="B13" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
@@ -2975,205 +2940,198 @@
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD13" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="AB13" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC13" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>271</v>
-      </c>
-      <c r="D14" s="12"/>
+      <c r="B14" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="E14" s="8" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P14" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="W14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="P14" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="S14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="U14" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="W14" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="X14" s="8" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="Y14" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Z14" s="8" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AA14" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB14" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="AC14" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD14" s="16" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="AB14" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="AC14" s="14" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="D15" s="12"/>
+      <c r="B15" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="8" t="s">
+        <v>70</v>
+      </c>
       <c r="E15" s="8" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="S15" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="U15" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="V15" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="W15" s="8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="X15" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Y15" s="8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Z15" s="8" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="AA15" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB15" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="AC15" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="AD15" s="16" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="AB15" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AC15" s="14" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="D16" s="12"/>
+      <c r="B16" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="E16" s="8" t="s">
         <v>76</v>
       </c>
@@ -3198,9 +3156,7 @@
       <c r="L16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>76</v>
-      </c>
+      <c r="M16" s="8"/>
       <c r="N16" s="8"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
@@ -3215,24 +3171,23 @@
       <c r="Y16" s="8"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="16" t="s">
+      <c r="AB16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AD16" s="16" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="AC16" s="14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
-        <v>266</v>
+      <c r="B17" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8" t="b">
+        <v>1</v>
       </c>
       <c r="E17" s="8" t="b">
         <v>1</v>
@@ -3303,28 +3258,23 @@
       <c r="AA17" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AB17" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="AB17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>273</v>
+      <c r="C18" s="10"/>
+      <c r="D18" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>77</v>
@@ -3351,10 +3301,10 @@
         <v>77</v>
       </c>
       <c r="M18" s="8" t="s">
-        <v>77</v>
+        <v>130</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="O18" s="8" t="s">
         <v>140</v>
@@ -3395,28 +3345,23 @@
       <c r="AA18" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="AB18" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AC18" s="16" t="s">
+      <c r="AB18" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="AD18" s="16" t="s">
+      <c r="AC18" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>273</v>
+      <c r="C19" s="10"/>
+      <c r="D19" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>72</v>
@@ -3443,10 +3388,10 @@
         <v>72</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O19" s="8" t="s">
         <v>141</v>
@@ -3487,27 +3432,24 @@
       <c r="AA19" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="AB19" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AC19" s="16" t="s">
+      <c r="AB19" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD19" s="16" t="s">
+      <c r="AC19" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="12"/>
+      <c r="B20" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="E20" s="8" t="s">
         <v>78</v>
       </c>
@@ -3530,13 +3472,13 @@
         <v>78</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="M20" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="O20" s="8" t="s">
         <v>142</v>
@@ -3577,389 +3519,372 @@
       <c r="AA20" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="AB20" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AC20" s="16" t="s">
+      <c r="AB20" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="P21" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="W21" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="X21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y21" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA21" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="T22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="X22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="AD20" s="16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="8" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="V23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="E24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="G24" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="I24" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="J24" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="L24" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="N24" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="P21" s="8" t="s">
+      <c r="O24" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="P24" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="R21" s="8" t="s">
+      <c r="Q24" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="S21" s="8" t="s">
+      <c r="R24" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="T21" s="8" t="s">
+      <c r="S24" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="U21" s="8" t="s">
+      <c r="T24" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="V21" s="8" t="s">
+      <c r="U24" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="W21" s="8" t="s">
+      <c r="V24" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="X21" s="8" t="s">
+      <c r="W24" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="Y21" s="8" t="s">
+      <c r="X24" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="Z21" s="8" t="s">
+      <c r="Y24" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="AA21" s="8" t="s">
+      <c r="Z24" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="AB21" s="8" t="s">
+      <c r="AA24" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="AC21" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD21" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="AB24" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC24" s="14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="E22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="P22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="R22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="T22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="U22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="V22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="W22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB22" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="E23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="O23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="P23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="S23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="V23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="W23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="X23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="J24" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="N24" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="P24" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="R24" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="S24" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="V24" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="W24" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="X24" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y24" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="Z24" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA24" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="AB24" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC24" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="AD24" s="16" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="E25" s="8" t="s">
         <v>80</v>
       </c>
@@ -4029,27 +3954,24 @@
       <c r="AA25" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="AB25" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC25" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD25" s="16" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="AB25" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="AC25" s="14" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="D26" s="12"/>
+      <c r="B26" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
       <c r="E26" s="8">
         <v>1</v>
       </c>
@@ -4074,9 +3996,7 @@
       <c r="L26" s="8">
         <v>1</v>
       </c>
-      <c r="M26" s="8">
-        <v>1</v>
-      </c>
+      <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
@@ -4091,38 +4011,35 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="16">
+      <c r="AB26" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>266</v>
+      <c r="B27" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="8">
+        <v>1169</v>
       </c>
       <c r="E27" s="8">
-        <v>1169</v>
+        <v>2344</v>
       </c>
       <c r="F27" s="8">
-        <v>2344</v>
+        <v>770</v>
       </c>
       <c r="G27" s="8">
-        <v>770</v>
+        <v>292</v>
       </c>
       <c r="H27" s="8">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="I27" s="8">
         <v>180</v>
@@ -4134,11 +4051,9 @@
         <v>180</v>
       </c>
       <c r="L27" s="8">
-        <v>180</v>
-      </c>
-      <c r="M27" s="8">
         <v>5841</v>
       </c>
+      <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
@@ -4153,25 +4068,24 @@
       <c r="Y27" s="8"/>
       <c r="Z27" s="8"/>
       <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="16">
+      <c r="AB27" s="14">
         <v>10396</v>
       </c>
-      <c r="AD27" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="AC27" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" s="12"/>
+      <c r="B28" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="E28" s="8" t="b">
         <v>1</v>
       </c>
@@ -4182,23 +4096,21 @@
         <v>1</v>
       </c>
       <c r="H28" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M28" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
@@ -4213,36 +4125,35 @@
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="AB28" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="D29" s="12"/>
+      <c r="B29" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="8">
+        <v>25</v>
+      </c>
       <c r="E29" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F29" s="8">
         <v>30</v>
       </c>
       <c r="G29" s="8">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H29" s="8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I29" s="8">
         <v>1000</v>
@@ -4254,11 +4165,9 @@
         <v>1000</v>
       </c>
       <c r="L29" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M29" s="8">
         <v>5</v>
       </c>
+      <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
@@ -4273,36 +4182,35 @@
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="16">
+      <c r="AB29" s="14">
         <v>1.145E-3</v>
       </c>
-      <c r="AD29" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="AC29" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="D30" s="12"/>
+      <c r="B30" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="8">
+        <v>25</v>
+      </c>
       <c r="E30" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F30" s="8">
         <v>30</v>
       </c>
       <c r="G30" s="8">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H30" s="8">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I30" s="8">
         <v>1000</v>
@@ -4314,11 +4222,9 @@
         <v>1000</v>
       </c>
       <c r="L30" s="8">
-        <v>1000</v>
-      </c>
-      <c r="M30" s="8">
         <v>5</v>
       </c>
+      <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
@@ -4333,52 +4239,49 @@
       <c r="Y30" s="8"/>
       <c r="Z30" s="8"/>
       <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="16">
+      <c r="AB30" s="14">
         <v>1.469E-3</v>
       </c>
-      <c r="AD30" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="120" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="AC30" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="D31" s="12"/>
+      <c r="B31" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="8">
+        <v>-1</v>
+      </c>
       <c r="E31" s="8">
-        <v>-1</v>
+        <v>255</v>
       </c>
       <c r="F31" s="8">
         <v>255</v>
       </c>
       <c r="G31" s="8">
+        <v>-2147483648</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>-2147483648</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="8">
+        <v>-2147483648</v>
+      </c>
+      <c r="L31" s="8">
         <v>255</v>
       </c>
-      <c r="H31" s="8">
-        <v>-2147483648</v>
-      </c>
-      <c r="I31" s="8">
-        <v>-1</v>
-      </c>
-      <c r="J31" s="8">
-        <v>-2147483648</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L31" s="8">
-        <v>-2147483648</v>
-      </c>
-      <c r="M31" s="8">
-        <v>255</v>
-      </c>
+      <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
@@ -4393,52 +4296,49 @@
       <c r="Y31" s="8"/>
       <c r="Z31" s="8"/>
       <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD31" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="AB31" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC31" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D32" s="12"/>
+      <c r="B32" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="E32" s="8" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>91</v>
       </c>
       <c r="G32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="K32" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="L32" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M32" s="8" t="s">
-        <v>91</v>
-      </c>
+      <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
@@ -4453,25 +4353,24 @@
       <c r="Y32" s="8"/>
       <c r="Z32" s="8"/>
       <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="16" t="s">
+      <c r="AB32" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="AD32" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="AC32" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="D33" s="12"/>
+      <c r="B33" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
       <c r="E33" s="8">
         <v>0</v>
       </c>
@@ -4496,9 +4395,7 @@
       <c r="L33" s="8">
         <v>0</v>
       </c>
-      <c r="M33" s="8">
-        <v>0</v>
-      </c>
+      <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
@@ -4513,25 +4410,22 @@
       <c r="Y33" s="8"/>
       <c r="Z33" s="8"/>
       <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="AB33" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B34" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
@@ -4555,25 +4449,22 @@
       <c r="Y34" s="8"/>
       <c r="Z34" s="8"/>
       <c r="AA34" s="8"/>
-      <c r="AB34" s="8"/>
-      <c r="AC34" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD34" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+      <c r="AB34" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC34" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B35" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
@@ -4597,25 +4488,22 @@
       <c r="Y35" s="8"/>
       <c r="Z35" s="8"/>
       <c r="AA35" s="8"/>
-      <c r="AB35" s="8"/>
-      <c r="AC35" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD35" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+      <c r="AB35" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC35" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B36" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
@@ -4639,24 +4527,23 @@
       <c r="Y36" s="8"/>
       <c r="Z36" s="8"/>
       <c r="AA36" s="8"/>
-      <c r="AB36" s="8"/>
-      <c r="AC36" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD36" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="AB36" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC36" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>266</v>
+      <c r="B37" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8">
+        <v>1</v>
       </c>
       <c r="E37" s="8">
         <v>1</v>
@@ -4682,9 +4569,7 @@
       <c r="L37" s="8">
         <v>1</v>
       </c>
-      <c r="M37" s="8">
-        <v>1</v>
-      </c>
+      <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
@@ -4699,25 +4584,22 @@
       <c r="Y37" s="8"/>
       <c r="Z37" s="8"/>
       <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="16">
+      <c r="AB37" s="14">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B38" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -4741,25 +4623,22 @@
       <c r="Y38" s="8"/>
       <c r="Z38" s="8"/>
       <c r="AA38" s="8"/>
-      <c r="AB38" s="8"/>
-      <c r="AC38" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD38" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+      <c r="AB38" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC38" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B39" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
@@ -4783,25 +4662,22 @@
       <c r="Y39" s="8"/>
       <c r="Z39" s="8"/>
       <c r="AA39" s="8"/>
-      <c r="AB39" s="8"/>
-      <c r="AC39" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD39" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+      <c r="AB39" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC39" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B40" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -4825,25 +4701,22 @@
       <c r="Y40" s="8"/>
       <c r="Z40" s="8"/>
       <c r="AA40" s="8"/>
-      <c r="AB40" s="8"/>
-      <c r="AC40" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD40" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+      <c r="AB40" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC40" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B41" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
@@ -4867,36 +4740,35 @@
       <c r="Y41" s="8"/>
       <c r="Z41" s="8"/>
       <c r="AA41" s="8"/>
-      <c r="AB41" s="8"/>
-      <c r="AC41" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD41" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+      <c r="AB41" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC41" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>266</v>
+      <c r="B42" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="8">
+        <v>1445</v>
       </c>
       <c r="E42" s="8">
-        <v>1445</v>
+        <v>3131</v>
       </c>
       <c r="F42" s="8">
-        <v>3131</v>
+        <v>1000</v>
       </c>
       <c r="G42" s="8">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="H42" s="8">
-        <v>361</v>
+        <v>205</v>
       </c>
       <c r="I42" s="8">
         <v>205</v>
@@ -4908,11 +4780,9 @@
         <v>205</v>
       </c>
       <c r="L42" s="8">
-        <v>205</v>
-      </c>
-      <c r="M42" s="8">
         <v>7221</v>
       </c>
+      <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
@@ -4927,25 +4797,22 @@
       <c r="Y42" s="8"/>
       <c r="Z42" s="8"/>
       <c r="AA42" s="8"/>
-      <c r="AB42" s="8"/>
-      <c r="AC42" s="16">
+      <c r="AB42" s="14">
         <v>12545</v>
       </c>
-      <c r="AD42" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+      <c r="AC42" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B43" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
@@ -4969,25 +4836,22 @@
       <c r="Y43" s="8"/>
       <c r="Z43" s="8"/>
       <c r="AA43" s="8"/>
-      <c r="AB43" s="8"/>
-      <c r="AC43" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD43" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
+      <c r="AB43" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC43" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B44" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
@@ -5011,25 +4875,22 @@
       <c r="Y44" s="8"/>
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
-      <c r="AB44" s="8"/>
-      <c r="AC44" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD44" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+      <c r="AB44" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC44" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B45" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
@@ -5053,25 +4914,22 @@
       <c r="Y45" s="8"/>
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
-      <c r="AB45" s="8"/>
-      <c r="AC45" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD45" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
+      <c r="AB45" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC45" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B46" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -5095,25 +4953,22 @@
       <c r="Y46" s="8"/>
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
-      <c r="AB46" s="8"/>
-      <c r="AC46" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD46" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+      <c r="AB46" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC46" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B47" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
@@ -5137,25 +4992,22 @@
       <c r="Y47" s="8"/>
       <c r="Z47" s="8"/>
       <c r="AA47" s="8"/>
-      <c r="AB47" s="8"/>
-      <c r="AC47" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD47" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="AB47" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC47" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B48" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -5179,25 +5031,22 @@
       <c r="Y48" s="8"/>
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
-      <c r="AB48" s="8"/>
-      <c r="AC48" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD48" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="AB48" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC48" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B49" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -5221,36 +5070,35 @@
       <c r="Y49" s="8"/>
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
-      <c r="AB49" s="8"/>
-      <c r="AC49" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD49" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
+      <c r="AB49" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC49" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>266</v>
+      <c r="B50" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="8">
+        <v>1169</v>
       </c>
       <c r="E50" s="8">
-        <v>1169</v>
+        <v>2344</v>
       </c>
       <c r="F50" s="8">
-        <v>2344</v>
+        <v>770</v>
       </c>
       <c r="G50" s="8">
-        <v>770</v>
+        <v>292</v>
       </c>
       <c r="H50" s="8">
-        <v>292</v>
+        <v>180</v>
       </c>
       <c r="I50" s="8">
         <v>180</v>
@@ -5262,11 +5110,9 @@
         <v>180</v>
       </c>
       <c r="L50" s="8">
-        <v>180</v>
-      </c>
-      <c r="M50" s="8">
         <v>5841</v>
       </c>
+      <c r="M50" s="8"/>
       <c r="N50" s="8"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
@@ -5281,25 +5127,22 @@
       <c r="Y50" s="8"/>
       <c r="Z50" s="8"/>
       <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="16">
+      <c r="AB50" s="14">
         <v>10396</v>
       </c>
-      <c r="AD50" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+      <c r="AC50" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B51" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -5323,25 +5166,22 @@
       <c r="Y51" s="8"/>
       <c r="Z51" s="8"/>
       <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD51" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
+      <c r="AB51" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC51" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B52" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -5365,25 +5205,22 @@
       <c r="Y52" s="8"/>
       <c r="Z52" s="8"/>
       <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD52" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
+      <c r="AB52" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC52" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B53" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -5407,25 +5244,22 @@
       <c r="Y53" s="8"/>
       <c r="Z53" s="8"/>
       <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD53" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
+      <c r="AB53" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC53" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B54" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
@@ -5449,25 +5283,22 @@
       <c r="Y54" s="8"/>
       <c r="Z54" s="8"/>
       <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD54" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
+      <c r="AB54" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC54" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B55" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
@@ -5491,25 +5322,22 @@
       <c r="Y55" s="8"/>
       <c r="Z55" s="8"/>
       <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD55" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
+      <c r="AB55" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC55" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B56" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
@@ -5533,25 +5361,22 @@
       <c r="Y56" s="8"/>
       <c r="Z56" s="8"/>
       <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD56" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
+      <c r="AB56" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC56" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B57" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
@@ -5575,25 +5400,22 @@
       <c r="Y57" s="8"/>
       <c r="Z57" s="8"/>
       <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD57" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
+      <c r="AB57" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC57" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B58" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
@@ -5617,25 +5439,22 @@
       <c r="Y58" s="8"/>
       <c r="Z58" s="8"/>
       <c r="AA58" s="8"/>
-      <c r="AB58" s="8"/>
-      <c r="AC58" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD58" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
+      <c r="AB58" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC58" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B59" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -5659,25 +5478,22 @@
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
-      <c r="AB59" s="8"/>
-      <c r="AC59" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD59" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A60" s="9" t="s">
+      <c r="AB59" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC59" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B60" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B60" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
@@ -5701,25 +5517,22 @@
       <c r="Y60" s="8"/>
       <c r="Z60" s="8"/>
       <c r="AA60" s="8"/>
-      <c r="AB60" s="8"/>
-      <c r="AC60" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD60" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
+      <c r="AB60" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC60" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B61" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
-        <v>266</v>
-      </c>
+      <c r="B61" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
@@ -5743,25 +5556,24 @@
       <c r="Y61" s="8"/>
       <c r="Z61" s="8"/>
       <c r="AA61" s="8"/>
-      <c r="AB61" s="8"/>
-      <c r="AC61" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD61" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
+      <c r="AB61" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC61" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B62" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="D62" s="12"/>
+      <c r="B62" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="E62" s="8" t="s">
         <v>82</v>
       </c>
@@ -5772,23 +5584,21 @@
         <v>82</v>
       </c>
       <c r="H62" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I62" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="J62" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="K62" s="8" t="s">
-        <v>110</v>
       </c>
       <c r="L62" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M62" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="M62" s="8"/>
       <c r="N62" s="8"/>
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
@@ -5803,36 +5613,35 @@
       <c r="Y62" s="8"/>
       <c r="Z62" s="8"/>
       <c r="AA62" s="8"/>
-      <c r="AB62" s="8"/>
-      <c r="AC62" s="16" t="s">
+      <c r="AB62" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="AD62" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A63" s="12" t="s">
+      <c r="AC62" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B63" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D63" s="12"/>
+      <c r="B63" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="8">
+        <v>1445</v>
+      </c>
       <c r="E63" s="8">
-        <v>1445</v>
+        <v>3131</v>
       </c>
       <c r="F63" s="8">
-        <v>3131</v>
+        <v>1000</v>
       </c>
       <c r="G63" s="8">
-        <v>1000</v>
+        <v>361</v>
       </c>
       <c r="H63" s="8">
-        <v>361</v>
+        <v>205</v>
       </c>
       <c r="I63" s="8">
         <v>205</v>
@@ -5844,11 +5653,9 @@
         <v>205</v>
       </c>
       <c r="L63" s="8">
-        <v>205</v>
-      </c>
-      <c r="M63" s="8">
         <v>7221</v>
       </c>
+      <c r="M63" s="8"/>
       <c r="N63" s="8"/>
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
@@ -5863,25 +5670,24 @@
       <c r="Y63" s="8"/>
       <c r="Z63" s="8"/>
       <c r="AA63" s="8"/>
-      <c r="AB63" s="8"/>
-      <c r="AC63" s="16">
+      <c r="AB63" s="14">
         <v>12545</v>
       </c>
-      <c r="AD63" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
+      <c r="AC63" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="D64" s="12"/>
+      <c r="B64" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="E64" s="8" t="s">
         <v>83</v>
       </c>
@@ -5889,26 +5695,24 @@
         <v>83</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="H64" s="8" t="s">
         <v>102</v>
       </c>
       <c r="I64" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J64" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="K64" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="L64" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="M64" s="8" t="s">
-        <v>83</v>
-      </c>
+      <c r="M64" s="8"/>
       <c r="N64" s="8"/>
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
@@ -5923,25 +5727,24 @@
       <c r="Y64" s="8"/>
       <c r="Z64" s="8"/>
       <c r="AA64" s="8"/>
-      <c r="AB64" s="8"/>
-      <c r="AC64" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="AD64" s="16" t="s">
+      <c r="AB64" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="AC64" s="14" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="12" t="s">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D65" s="12"/>
+      <c r="B65" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="E65" s="8" t="s">
         <v>84</v>
       </c>
@@ -5966,9 +5769,7 @@
       <c r="L65" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M65" s="8" t="s">
-        <v>84</v>
-      </c>
+      <c r="M65" s="8"/>
       <c r="N65" s="8"/>
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
@@ -5983,25 +5784,24 @@
       <c r="Y65" s="8"/>
       <c r="Z65" s="8"/>
       <c r="AA65" s="8"/>
-      <c r="AB65" s="8"/>
-      <c r="AC65" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD65" s="16" t="s">
+      <c r="AB65" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC65" s="14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:29" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B66" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="D66" s="12"/>
+      <c r="B66" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="E66" s="8" t="b">
         <v>1</v>
       </c>
@@ -6026,9 +5826,7 @@
       <c r="L66" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="M66" s="8" t="b">
-        <v>1</v>
-      </c>
+      <c r="M66" s="8"/>
       <c r="N66" s="8"/>
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
@@ -6043,25 +5841,22 @@
       <c r="Y66" s="8"/>
       <c r="Z66" s="8"/>
       <c r="AA66" s="8"/>
-      <c r="AB66" s="8"/>
-      <c r="AC66" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
+      <c r="AB66" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B67" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D67" s="12"/>
+      <c r="B67" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -6085,25 +5880,24 @@
       <c r="Y67" s="8"/>
       <c r="Z67" s="8"/>
       <c r="AA67" s="8"/>
-      <c r="AB67" s="8"/>
-      <c r="AC67" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD67" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="AB67" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC67" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B68" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="D68" s="12"/>
+      <c r="B68" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="8" t="s">
+        <v>85</v>
+      </c>
       <c r="E68" s="8" t="s">
         <v>85</v>
       </c>
@@ -6113,21 +5907,21 @@
       <c r="G68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="8"/>
+      <c r="I68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
+      <c r="J68" s="8"/>
+      <c r="K68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="K68" s="8"/>
       <c r="L68" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="M68" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="N68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8" t="s">
+        <v>144</v>
+      </c>
       <c r="O68" s="8" t="s">
         <v>144</v>
       </c>
@@ -6167,70 +5961,67 @@
       <c r="AA68" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="AB68" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC68" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="AD68" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="69" spans="1:30" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
+      <c r="AB68" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC68" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:29" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="D69" s="12"/>
+      <c r="B69" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="8" t="s">
+        <v>86</v>
+      </c>
       <c r="E69" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F69" s="8" t="s">
         <v>92</v>
       </c>
       <c r="G69" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="8"/>
+      <c r="K69" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="K69" s="8"/>
       <c r="L69" s="8" t="s">
         <v>92</v>
       </c>
       <c r="M69" s="8" t="s">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="N69" s="8" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="O69" s="8" t="s">
         <v>145</v>
       </c>
       <c r="P69" s="8" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="R69" s="8" t="s">
         <v>160</v>
       </c>
       <c r="S69" s="8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="T69" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="U69" s="8" t="s">
         <v>173</v>
@@ -6242,38 +6033,35 @@
         <v>173</v>
       </c>
       <c r="X69" s="8" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y69" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Z69" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="AA69" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB69" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="AC69" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="AD69" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="AB69" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="AC69" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A70" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="D70" s="12"/>
+      <c r="B70" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="10"/>
+      <c r="D70" s="8" t="b">
+        <v>1</v>
+      </c>
       <c r="E70" s="8" t="b">
         <v>1</v>
       </c>
@@ -6299,10 +6087,10 @@
         <v>1</v>
       </c>
       <c r="M70" s="8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" s="8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" s="8" t="b">
         <v>1</v>
@@ -6343,27 +6131,22 @@
       <c r="AA70" s="8" t="b">
         <v>1</v>
       </c>
-      <c r="AB70" s="8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="16" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="AB70" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D71" s="12"/>
+      <c r="B71" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -6373,7 +6156,9 @@
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
-      <c r="N71" s="8"/>
+      <c r="N71" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="O71" s="8" t="s">
         <v>146</v>
       </c>
@@ -6386,10 +6171,10 @@
       <c r="R71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="S71" s="8" t="s">
+      <c r="S71" s="8"/>
+      <c r="T71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="T71" s="8"/>
       <c r="U71" s="8" t="s">
         <v>146</v>
       </c>
@@ -6411,14 +6196,11 @@
       <c r="AA71" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="AB71" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC71" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="AD71" s="16" t="s">
-        <v>300</v>
+      <c r="AB71" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC71" s="14" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6428,6 +6210,594 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B71"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="79.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DJ33"/>
   <sheetViews>
@@ -8898,7 +9268,7 @@
     </row>
     <row r="31" spans="1:114" x14ac:dyDescent="0.25">
       <c r="AS31" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="AT31" t="s">
         <v>1</v>
@@ -9113,7 +9483,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="AU32">
         <v>-1</v>
@@ -9131,7 +9501,7 @@
         <v>72</v>
       </c>
       <c r="AZ32" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="BA32" t="b">
         <v>0</v>
@@ -9140,16 +9510,16 @@
         <v>138</v>
       </c>
       <c r="BC32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BD32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BE32" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="BF32" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="BG32" t="s">
         <v>76</v>
@@ -9164,10 +9534,10 @@
         <v>72</v>
       </c>
       <c r="BK32" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="BL32" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="BM32" t="b">
         <v>1</v>
@@ -9176,10 +9546,10 @@
         <v>0</v>
       </c>
       <c r="BO32" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="BP32" t="s">
-        <v>304</v>
+        <v>286</v>
       </c>
       <c r="BQ32">
         <v>1</v>
@@ -9197,7 +9567,7 @@
         <v>1.469E-3</v>
       </c>
       <c r="BV32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BW32" t="s">
         <v>91</v>
@@ -9206,88 +9576,88 @@
         <v>1</v>
       </c>
       <c r="BY32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BZ32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CA32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CB32">
         <v>1</v>
       </c>
       <c r="CC32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CD32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CE32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CF32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CG32">
         <v>12545</v>
       </c>
       <c r="CH32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CI32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CJ32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CK32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CL32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CM32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CN32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CO32">
         <v>10396</v>
       </c>
       <c r="CP32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CQ32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CR32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CS32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CT32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CU32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CV32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CW32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CX32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CY32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CZ32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DA32" t="s">
         <v>82</v>
@@ -9296,28 +9666,28 @@
         <v>12545</v>
       </c>
       <c r="DC32" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="DD32" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="DE32" t="b">
         <v>1</v>
       </c>
       <c r="DF32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DG32" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="DH32" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="DI32" t="b">
         <v>1</v>
       </c>
       <c r="DJ32" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="45:114" x14ac:dyDescent="0.25">
@@ -9325,7 +9695,7 @@
         <v>2</v>
       </c>
       <c r="AT33" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="AU33">
         <v>-1</v>
@@ -9343,28 +9713,28 @@
         <v>72</v>
       </c>
       <c r="AZ33" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="BA33" t="b">
         <v>0</v>
       </c>
       <c r="BB33" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="BC33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BD33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BE33" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="BF33" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="BG33" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="BH33" t="b">
         <v>1</v>
@@ -9379,7 +9749,7 @@
         <v>78</v>
       </c>
       <c r="BL33" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="BM33" t="b">
         <v>1</v>
@@ -9388,124 +9758,124 @@
         <v>0</v>
       </c>
       <c r="BO33" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="BP33" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="BQ33">
         <v>3</v>
       </c>
       <c r="BR33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BS33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BT33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BU33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BV33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BW33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BX33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BY33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="BZ33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CA33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CB33">
         <v>3</v>
       </c>
       <c r="CC33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CD33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CE33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CF33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CG33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CH33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CI33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CJ33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CK33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CL33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CM33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CN33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CO33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CP33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CQ33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CR33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CS33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CT33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CU33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CV33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CW33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CX33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CY33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="CZ33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DA33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DB33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DC33" t="s">
         <v>83</v>
@@ -9517,19 +9887,19 @@
         <v>1</v>
       </c>
       <c r="DF33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DG33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DH33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DI33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="DJ33" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -9537,7 +9907,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
